--- a/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
+++ b/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
@@ -1323,7 +1323,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>

--- a/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
+++ b/docs/CareConnect-InspiredOxygen-Observation-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5196" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="576">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}obs-7:If code is the same as a component code then the value element associated with the code SHALL NOT be present {value.empty() or code!=component.code}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}obs-7:If code is the same as a component code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where( (coding.code = %resource.code.coding.code) and (coding.system = %resource.code.coding.system)).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -501,7 +501,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -742,41 +742,10 @@
 </t>
   </si>
   <si>
-    <t>Observation.category.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.category.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -1332,18 +1301,6 @@
     <t>Observation.bodySite.coding.extension</t>
   </si>
   <si>
-    <t>Observation.bodySite.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension.value[x]</t>
-  </si>
-  <si>
     <t>Observation.bodySite.coding.system</t>
   </si>
   <si>
@@ -1408,18 +1365,6 @@
   </si>
   <si>
     <t>Observation.method.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Observation.method.coding.system</t>
@@ -1806,18 +1751,6 @@
   </si>
   <si>
     <t>Observation.component.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Observation.component.code.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Observation.component.code.coding.system</t>
@@ -2021,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO140"/>
+  <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2030,7 +1963,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.7734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.2890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -5387,10 +5320,10 @@
         <v>232</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5476,7 +5409,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5484,7 +5417,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>56</v>
@@ -5496,25 +5429,29 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5556,7 +5493,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5577,10 +5514,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5591,18 +5528,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5611,19 +5548,19 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5661,25 +5598,25 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5694,10 +5631,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5708,7 +5645,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5728,21 +5665,21 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5790,10 +5727,10 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>56</v>
@@ -5811,10 +5748,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5825,7 +5762,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5833,7 +5770,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>56</v>
@@ -5845,19 +5782,21 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5905,7 +5844,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5926,10 +5865,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5940,7 +5879,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5948,7 +5887,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>56</v>
@@ -5963,26 +5902,26 @@
         <v>57</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>45</v>
@@ -6024,7 +5963,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -6045,10 +5984,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -6059,7 +5998,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6070,7 +6009,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -6085,15 +6024,17 @@
         <v>120</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -6141,7 +6082,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6162,10 +6103,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -6176,11 +6117,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6199,17 +6140,17 @@
         <v>57</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6234,13 +6175,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -6258,10 +6199,10 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>56</v>
@@ -6273,27 +6214,27 @@
         <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6301,7 +6242,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>56</v>
@@ -6313,21 +6254,19 @@
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6375,7 +6314,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6396,10 +6335,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6410,18 +6349,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6430,23 +6369,21 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>277</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6482,25 +6419,25 @@
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6515,10 +6452,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6529,7 +6466,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6537,7 +6474,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>56</v>
@@ -6552,19 +6489,19 @@
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6613,13 +6550,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6634,10 +6571,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6648,15 +6585,15 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>56</v>
@@ -6668,21 +6605,19 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6706,13 +6641,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6730,10 +6665,10 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>123</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>56</v>
@@ -6745,38 +6680,38 @@
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>302</v>
+        <v>124</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6788,15 +6723,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6833,25 +6770,25 @@
         <v>45</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6880,18 +6817,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6900,27 +6837,29 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>45</v>
@@ -6950,25 +6889,25 @@
         <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6983,10 +6922,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6997,7 +6936,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7005,10 +6944,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -7020,20 +6959,18 @@
         <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -7081,13 +7018,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -7102,10 +7039,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -7116,7 +7053,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7124,7 +7061,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>56</v>
@@ -7136,19 +7073,21 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -7196,7 +7135,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7217,10 +7156,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -7231,18 +7170,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -7251,21 +7190,21 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -7301,25 +7240,25 @@
         <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
@@ -7334,10 +7273,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7348,7 +7287,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7356,7 +7295,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>56</v>
@@ -7371,26 +7310,26 @@
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>45</v>
@@ -7432,7 +7371,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7453,10 +7392,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7467,7 +7406,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7478,7 +7417,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7493,15 +7432,17 @@
         <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7549,7 +7490,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7570,10 +7511,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7584,7 +7525,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7592,7 +7533,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>56</v>
@@ -7607,17 +7548,19 @@
         <v>57</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7666,7 +7609,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7681,19 +7624,19 @@
         <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7701,15 +7644,15 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>56</v>
@@ -7721,20 +7664,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7783,7 +7728,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7798,19 +7743,19 @@
         <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7818,11 +7763,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7841,19 +7786,19 @@
         <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7902,7 +7847,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7917,19 +7862,19 @@
         <v>45</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -7937,7 +7882,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7960,20 +7905,18 @@
         <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -8021,7 +7964,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8042,13 +7985,13 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -8056,7 +7999,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8067,7 +8010,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -8079,19 +8022,17 @@
         <v>57</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8140,13 +8081,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -8155,19 +8096,19 @@
         <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>45</v>
@@ -8175,11 +8116,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8195,22 +8136,22 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -8259,7 +8200,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8268,37 +8209,37 @@
         <v>56</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8314,22 +8255,22 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8354,13 +8295,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8378,7 +8319,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8387,25 +8328,25 @@
         <v>56</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -8413,11 +8354,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8433,21 +8374,21 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>349</v>
+        <v>142</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8471,13 +8412,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8495,7 +8436,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8513,24 +8454,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8541,7 +8482,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8550,20 +8491,20 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>357</v>
+        <v>120</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8612,13 +8553,13 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
@@ -8627,19 +8568,19 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8647,7 +8588,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8667,23 +8608,21 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>366</v>
+        <v>142</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8707,13 +8646,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>399</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8731,7 +8670,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8740,33 +8679,33 @@
         <v>56</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8789,20 +8728,16 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>378</v>
+        <v>121</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8826,13 +8761,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8850,7 +8785,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>377</v>
+        <v>123</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8859,22 +8794,22 @@
         <v>56</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>385</v>
+        <v>124</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8885,18 +8820,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>387</v>
+        <v>101</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8908,18 +8843,18 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8943,37 +8878,37 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8985,24 +8920,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>395</v>
+        <v>124</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9013,7 +8948,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -9022,20 +8957,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>398</v>
+        <v>218</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>400</v>
+        <v>221</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9072,25 +9009,23 @@
         <v>45</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>397</v>
+        <v>223</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -9099,16 +9034,16 @@
         <v>45</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>402</v>
+        <v>224</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>403</v>
+        <v>225</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9119,9 +9054,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>45</v>
       </c>
@@ -9139,21 +9076,23 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>405</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>406</v>
+        <v>219</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -9177,7 +9116,7 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>409</v>
@@ -9201,13 +9140,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>404</v>
+        <v>223</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -9219,24 +9158,24 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>412</v>
+        <v>224</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>413</v>
+        <v>225</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9351,11 +9290,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9377,14 +9316,12 @@
         <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9457,7 +9394,7 @@
         <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9468,9 +9405,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9488,23 +9427,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9540,17 +9475,19 @@
         <v>45</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AB64" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9571,10 +9508,10 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9585,17 +9522,15 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>56</v>
@@ -9610,26 +9545,26 @@
         <v>57</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>45</v>
@@ -9647,13 +9582,13 @@
         <v>45</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>45</v>
@@ -9671,13 +9606,13 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>45</v>
@@ -9692,10 +9627,10 @@
         <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9706,7 +9641,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9717,7 +9652,7 @@
         <v>43</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>45</v>
@@ -9726,18 +9661,20 @@
         <v>45</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9786,7 +9723,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9807,10 +9744,10 @@
         <v>45</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9821,7 +9758,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9829,10 +9766,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>45</v>
@@ -9841,19 +9778,21 @@
         <v>45</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
       </c>
@@ -9889,25 +9828,25 @@
         <v>45</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>45</v>
@@ -9922,10 +9861,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9936,20 +9875,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9958,19 +9895,21 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -10018,13 +9957,13 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -10039,10 +9978,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -10053,7 +9992,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10073,19 +10012,23 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
       </c>
@@ -10133,7 +10076,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10154,10 +10097,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10168,18 +10111,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -10188,21 +10131,23 @@
         <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -10238,25 +10183,25 @@
         <v>45</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -10271,10 +10216,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10285,7 +10230,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10293,7 +10238,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>56</v>
@@ -10308,18 +10253,20 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
       </c>
@@ -10343,13 +10290,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>45</v>
+        <v>424</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>45</v>
+        <v>425</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10367,10 +10314,10 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>239</v>
+        <v>419</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>56</v>
@@ -10388,10 +10335,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10402,7 +10349,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10425,13 +10372,13 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10482,7 +10429,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10506,7 +10453,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10517,18 +10464,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10537,29 +10484,27 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>247</v>
+        <v>126</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>45</v>
@@ -10589,25 +10534,25 @@
         <v>45</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -10622,10 +10567,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10636,7 +10581,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10647,7 +10592,7 @@
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -10659,18 +10604,20 @@
         <v>57</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -10706,25 +10653,23 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AB74" s="2"/>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
@@ -10739,10 +10684,10 @@
         <v>45</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10753,15 +10698,17 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>56</v>
@@ -10776,17 +10723,19 @@
         <v>57</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N75" t="s" s="2">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>45</v>
@@ -10811,13 +10760,13 @@
         <v>45</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>45</v>
@@ -10835,13 +10784,13 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
@@ -10856,10 +10805,10 @@
         <v>45</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -10870,7 +10819,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10878,7 +10827,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>56</v>
@@ -10890,21 +10839,19 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -10952,7 +10899,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10973,10 +10920,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10987,7 +10934,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10998,7 +10945,7 @@
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>45</v>
@@ -11007,23 +10954,19 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11059,25 +11002,25 @@
         <v>45</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -11092,10 +11035,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11106,9 +11049,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11117,7 +11062,7 @@
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>45</v>
@@ -11126,23 +11071,19 @@
         <v>45</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11190,13 +11131,13 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
@@ -11211,10 +11152,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11225,7 +11166,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11233,7 +11174,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>56</v>
@@ -11245,29 +11186,29 @@
         <v>45</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>434</v>
+        <v>236</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>435</v>
+        <v>237</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>436</v>
+        <v>238</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>437</v>
+        <v>239</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>45</v>
@@ -11285,13 +11226,13 @@
         <v>45</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>438</v>
+        <v>45</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>45</v>
@@ -11309,7 +11250,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11330,10 +11271,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>441</v>
+        <v>243</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11344,7 +11285,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11355,7 +11296,7 @@
         <v>43</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>45</v>
@@ -11364,18 +11305,20 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11424,7 +11367,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11445,10 +11388,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11459,18 +11402,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -11479,21 +11422,21 @@
         <v>45</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
       </c>
@@ -11529,25 +11472,25 @@
         <v>45</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
@@ -11562,10 +11505,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11576,7 +11519,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11584,10 +11527,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>45</v>
@@ -11599,19 +11542,17 @@
         <v>57</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11648,23 +11589,25 @@
         <v>45</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AB82" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>45</v>
@@ -11679,10 +11622,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11693,11 +11636,9 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11718,19 +11659,19 @@
         <v>57</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11755,13 +11696,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11779,13 +11720,13 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>45</v>
@@ -11800,10 +11741,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11814,7 +11755,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11834,19 +11775,23 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
       </c>
@@ -11894,7 +11839,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11915,10 +11860,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11929,7 +11874,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11940,7 +11885,7 @@
         <v>43</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>45</v>
@@ -11952,15 +11897,17 @@
         <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>102</v>
+        <v>442</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>229</v>
+        <v>443</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -11997,25 +11944,25 @@
         <v>45</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>130</v>
+        <v>441</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>45</v>
@@ -12027,28 +11974,26 @@
         <v>45</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>45</v>
+        <v>448</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12057,7 +12002,7 @@
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>45</v>
@@ -12069,15 +12014,17 @@
         <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>232</v>
+        <v>451</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>229</v>
+        <v>452</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12126,13 +12073,13 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
@@ -12144,24 +12091,24 @@
         <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>45</v>
+        <v>456</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12172,7 +12119,7 @@
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>45</v>
@@ -12184,16 +12131,20 @@
         <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>120</v>
+        <v>460</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>121</v>
+        <v>461</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12241,19 +12192,19 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>123</v>
+        <v>459</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>45</v>
@@ -12262,10 +12213,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>124</v>
+        <v>467</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12276,18 +12227,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>45</v>
@@ -12299,17 +12250,15 @@
         <v>45</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>45</v>
@@ -12346,25 +12295,25 @@
         <v>45</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>45</v>
@@ -12393,18 +12342,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>45</v>
@@ -12416,16 +12365,16 @@
         <v>45</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12475,13 +12424,13 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>45</v>
@@ -12499,7 +12448,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -12510,38 +12459,40 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>45</v>
+        <v>471</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>242</v>
+        <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12590,13 +12541,13 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>244</v>
+        <v>473</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>45</v>
@@ -12625,7 +12576,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12633,7 +12584,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>56</v>
@@ -12645,29 +12596,25 @@
         <v>45</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>69</v>
+        <v>475</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>246</v>
+        <v>476</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>45</v>
@@ -12709,7 +12656,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>251</v>
+        <v>474</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
@@ -12718,7 +12665,7 @@
         <v>56</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>45</v>
@@ -12730,10 +12677,10 @@
         <v>45</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>252</v>
+        <v>479</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>253</v>
+        <v>480</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12744,7 +12691,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12755,7 +12702,7 @@
         <v>43</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>45</v>
@@ -12764,20 +12711,18 @@
         <v>45</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>120</v>
+        <v>475</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>255</v>
+        <v>482</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -12826,7 +12771,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>258</v>
+        <v>481</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -12835,7 +12780,7 @@
         <v>56</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>45</v>
@@ -12847,10 +12792,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>259</v>
+        <v>479</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>260</v>
+        <v>484</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12861,7 +12806,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12869,7 +12814,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>56</v>
@@ -12881,20 +12826,22 @@
         <v>45</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>262</v>
+        <v>486</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="N93" t="s" s="2">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>45</v>
@@ -12919,13 +12866,13 @@
         <v>45</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>45</v>
@@ -12943,7 +12890,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>265</v>
+        <v>485</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -12961,13 +12908,13 @@
         <v>45</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>266</v>
+        <v>493</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>267</v>
+        <v>385</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
@@ -12978,7 +12925,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12986,10 +12933,10 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
@@ -12998,20 +12945,22 @@
         <v>45</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>269</v>
+        <v>495</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="N94" t="s" s="2">
-        <v>271</v>
+        <v>498</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -13036,13 +12985,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13060,13 +13009,13 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>272</v>
+        <v>494</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
@@ -13078,13 +13027,13 @@
         <v>45</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>273</v>
+        <v>493</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13095,7 +13044,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13115,22 +13064,20 @@
         <v>45</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>276</v>
+        <v>502</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>277</v>
+        <v>503</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>280</v>
+        <v>505</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13179,7 +13126,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>281</v>
+        <v>501</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13200,10 +13147,10 @@
         <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>283</v>
+        <v>506</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13214,7 +13161,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13234,23 +13181,19 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>285</v>
+        <v>508</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
@@ -13298,7 +13241,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>289</v>
+        <v>507</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13319,10 +13262,10 @@
         <v>45</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>290</v>
+        <v>479</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>291</v>
+        <v>510</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13333,7 +13276,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13344,7 +13287,7 @@
         <v>43</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>45</v>
@@ -13353,21 +13296,23 @@
         <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>460</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>45</v>
       </c>
@@ -13415,42 +13360,42 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>467</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13473,17 +13418,15 @@
         <v>45</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>469</v>
+        <v>120</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>470</v>
+        <v>121</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -13532,7 +13475,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>468</v>
+        <v>123</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -13550,28 +13493,28 @@
         <v>45</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>473</v>
+        <v>45</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>474</v>
+        <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>475</v>
+        <v>124</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>476</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13590,20 +13533,18 @@
         <v>45</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>478</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>479</v>
+        <v>103</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>480</v>
+        <v>126</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>45</v>
       </c>
@@ -13651,7 +13592,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>477</v>
+        <v>130</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -13663,7 +13604,7 @@
         <v>45</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>483</v>
+        <v>45</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>45</v>
@@ -13672,10 +13613,10 @@
         <v>45</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>484</v>
+        <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>485</v>
+        <v>124</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -13686,38 +13627,40 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>45</v>
+        <v>471</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>45</v>
@@ -13766,13 +13709,13 @@
         <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
@@ -13790,7 +13733,7 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -13801,18 +13744,18 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>45</v>
@@ -13824,18 +13767,20 @@
         <v>45</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>103</v>
+        <v>523</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>126</v>
+        <v>524</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>45</v>
       </c>
@@ -13859,13 +13804,13 @@
         <v>45</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>45</v>
+        <v>527</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>45</v>
@@ -13883,13 +13828,13 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>130</v>
+        <v>522</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>45</v>
@@ -13904,10 +13849,10 @@
         <v>45</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>124</v>
+        <v>529</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
@@ -13918,40 +13863,38 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>488</v>
+        <v>530</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>102</v>
+        <v>531</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>108</v>
+        <v>532</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
@@ -14000,13 +13943,13 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>45</v>
@@ -14024,7 +13967,7 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>99</v>
+        <v>534</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
@@ -14035,7 +13978,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14046,7 +13989,7 @@
         <v>43</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>45</v>
@@ -14055,19 +13998,23 @@
         <v>45</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
@@ -14115,19 +14062,19 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>496</v>
+        <v>45</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>45</v>
@@ -14136,10 +14083,10 @@
         <v>45</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14150,7 +14097,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14173,13 +14120,13 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>493</v>
+        <v>120</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>500</v>
+        <v>121</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>501</v>
+        <v>122</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14230,7 +14177,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>499</v>
+        <v>123</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14239,7 +14186,7 @@
         <v>56</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>496</v>
+        <v>45</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>45</v>
@@ -14251,10 +14198,10 @@
         <v>45</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>497</v>
+        <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>502</v>
+        <v>124</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -14265,18 +14212,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>45</v>
@@ -14288,20 +14235,18 @@
         <v>45</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>504</v>
+        <v>103</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>505</v>
+        <v>126</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
@@ -14325,13 +14270,13 @@
         <v>45</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>508</v>
+        <v>45</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>509</v>
+        <v>45</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>45</v>
@@ -14349,13 +14294,13 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>45</v>
@@ -14367,13 +14312,13 @@
         <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>510</v>
+        <v>45</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>511</v>
+        <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>395</v>
+        <v>124</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14384,11 +14329,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>45</v>
+        <v>471</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14401,26 +14346,24 @@
         <v>45</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>513</v>
+        <v>108</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
@@ -14444,13 +14387,13 @@
         <v>45</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>517</v>
+        <v>45</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>518</v>
+        <v>45</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>45</v>
@@ -14468,7 +14411,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14486,13 +14429,13 @@
         <v>45</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>510</v>
+        <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>511</v>
+        <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>395</v>
+        <v>99</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14503,7 +14446,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14511,7 +14454,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>56</v>
@@ -14523,20 +14466,20 @@
         <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>520</v>
+        <v>142</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>523</v>
+        <v>286</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -14561,13 +14504,13 @@
         <v>45</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>45</v>
+        <v>548</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>45</v>
+        <v>549</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>45</v>
@@ -14585,10 +14528,10 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>56</v>
@@ -14603,16 +14546,16 @@
         <v>45</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>45</v>
+        <v>550</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>524</v>
+        <v>292</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>45</v>
@@ -14620,7 +14563,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14646,10 +14589,10 @@
         <v>120</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>526</v>
+        <v>121</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>527</v>
+        <v>122</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14700,7 +14643,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>525</v>
+        <v>123</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14721,10 +14664,10 @@
         <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>497</v>
+        <v>45</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>528</v>
+        <v>124</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14735,11 +14678,11 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -14755,23 +14698,21 @@
         <v>45</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>478</v>
+        <v>102</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>530</v>
+        <v>103</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>531</v>
+        <v>126</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>45</v>
       </c>
@@ -14807,19 +14748,19 @@
         <v>45</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>529</v>
+        <v>130</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14831,7 +14772,7 @@
         <v>45</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>534</v>
+        <v>45</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>45</v>
@@ -14840,10 +14781,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>536</v>
+        <v>124</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -14854,7 +14795,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14865,7 +14806,7 @@
         <v>43</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>45</v>
@@ -14874,19 +14815,23 @@
         <v>45</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
       </c>
@@ -14922,25 +14867,23 @@
         <v>45</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AB110" s="2"/>
       <c r="AC110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>45</v>
@@ -14955,10 +14898,10 @@
         <v>45</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
@@ -14969,18 +14912,20 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C111" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>45</v>
@@ -14989,21 +14934,23 @@
         <v>45</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
@@ -15027,13 +14974,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>45</v>
+        <v>554</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>45</v>
+        <v>555</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -15051,7 +14998,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15072,10 +15019,10 @@
         <v>45</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -15086,40 +15033,38 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>45</v>
@@ -15168,13 +15113,13 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>491</v>
+        <v>123</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>45</v>
@@ -15192,7 +15137,7 @@
         <v>45</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
@@ -15203,7 +15148,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15214,7 +15159,7 @@
         <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>45</v>
@@ -15226,20 +15171,16 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>541</v>
+        <v>229</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>45</v>
       </c>
@@ -15263,37 +15204,37 @@
         <v>45</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>545</v>
+        <v>45</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>546</v>
+        <v>45</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA113" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="AC113" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD113" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>540</v>
+        <v>130</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>45</v>
@@ -15308,10 +15249,10 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
@@ -15322,18 +15263,20 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="B114" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="C114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>45</v>
@@ -15345,13 +15288,13 @@
         <v>45</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>549</v>
+        <v>232</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>550</v>
+        <v>233</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>551</v>
+        <v>234</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15402,13 +15345,13 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>548</v>
+        <v>130</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>45</v>
@@ -15426,7 +15369,7 @@
         <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>552</v>
+        <v>45</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
@@ -15437,7 +15380,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15445,10 +15388,10 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>45</v>
@@ -15460,26 +15403,26 @@
         <v>57</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>478</v>
+        <v>69</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>554</v>
+        <v>236</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>555</v>
+        <v>237</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>556</v>
+        <v>238</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>557</v>
+        <v>239</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P115" s="2"/>
       <c r="Q115" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="R115" t="s" s="2">
         <v>45</v>
@@ -15521,19 +15464,19 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>553</v>
+        <v>241</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>534</v>
+        <v>45</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>45</v>
@@ -15542,10 +15485,10 @@
         <v>45</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>558</v>
+        <v>242</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>559</v>
+        <v>243</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
@@ -15556,7 +15499,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15567,7 +15510,7 @@
         <v>43</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>45</v>
@@ -15576,18 +15519,20 @@
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M116" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>45</v>
@@ -15636,7 +15581,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -15657,10 +15602,10 @@
         <v>45</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
@@ -15671,18 +15616,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>45</v>
@@ -15691,21 +15636,21 @@
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -15753,13 +15698,13 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>45</v>
@@ -15774,10 +15719,10 @@
         <v>45</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
@@ -15788,41 +15733,41 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>489</v>
+        <v>45</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>57</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N118" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O118" t="s" s="2">
         <v>45</v>
       </c>
@@ -15870,13 +15815,13 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>491</v>
+        <v>262</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
@@ -15891,10 +15836,10 @@
         <v>45</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -15905,7 +15850,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15913,7 +15858,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>56</v>
@@ -15928,17 +15873,19 @@
         <v>57</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>564</v>
+        <v>267</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N119" t="s" s="2">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
@@ -15963,13 +15910,13 @@
         <v>45</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>566</v>
+        <v>45</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>45</v>
@@ -15987,10 +15934,10 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>563</v>
+        <v>271</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>56</v>
@@ -16005,16 +15952,16 @@
         <v>45</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>568</v>
+        <v>45</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>45</v>
@@ -16022,7 +15969,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16042,19 +15989,23 @@
         <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>120</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
       </c>
@@ -16102,7 +16053,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16123,10 +16074,10 @@
         <v>45</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16137,18 +16088,18 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>45</v>
@@ -16157,21 +16108,23 @@
         <v>45</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>102</v>
+        <v>565</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>103</v>
+        <v>566</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>126</v>
+        <v>358</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N121" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
       </c>
@@ -16207,25 +16160,25 @@
         <v>45</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>130</v>
+        <v>564</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>45</v>
@@ -16237,24 +16190,24 @@
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>45</v>
+        <v>568</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16265,7 +16218,7 @@
         <v>43</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>45</v>
@@ -16274,22 +16227,22 @@
         <v>45</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>218</v>
+        <v>570</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>220</v>
+        <v>571</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>221</v>
+        <v>371</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
@@ -16314,38 +16267,40 @@
         <v>45</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AB122" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>223</v>
+        <v>569</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>45</v>
@@ -16357,10 +16312,10 @@
         <v>45</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>225</v>
+        <v>375</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16371,13 +16326,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>45</v>
+        <v>377</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16393,22 +16346,22 @@
         <v>45</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>219</v>
+        <v>379</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>220</v>
+        <v>573</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -16436,34 +16389,34 @@
         <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE123" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Y123" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>45</v>
@@ -16475,19 +16428,19 @@
         <v>45</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" hidden="true">
@@ -16503,7 +16456,7 @@
         <v>43</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>45</v>
@@ -16515,16 +16468,20 @@
         <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>121</v>
+        <v>575</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -16572,13 +16529,13 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>123</v>
+        <v>574</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>45</v>
@@ -16593,1900 +16550,20 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>45</v>
+        <v>466</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>124</v>
+        <v>467</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M134" s="2"/>
-      <c r="N134" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO140" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO140">
+  <autoFilter ref="A1:AO124">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18496,7 +16573,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI139">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
